--- a/app/templates/report/reservaslau.xlsx
+++ b/app/templates/report/reservaslau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790471D-FA0B-4E19-96AD-93E79DF90505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBB1F1-A61A-4421-8817-5F885222F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Fecha fin estimada</t>
   </si>
   <si>
-    <t>LAU?</t>
-  </si>
-  <si>
     <t>Inconsentida?</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Producto</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,8 @@
     <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
     <col min="8" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
     <col min="13" max="21" width="12.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" style="1" customWidth="1"/>
@@ -715,33 +716,33 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -780,70 +781,70 @@
         <v>14</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="P3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="T3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="Z3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="AB3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="AG3" s="9" t="s">
         <v>4</v>
@@ -858,30 +859,30 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
       <c r="N4" s="5"/>
       <c r="O4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="12"/>
       <c r="S4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>

--- a/app/templates/report/reservaslau.xlsx
+++ b/app/templates/report/reservaslau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBB1F1-A61A-4421-8817-5F885222F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F055AE-ED18-4E9D-8E9B-0E79A5FB1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AH$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Reservas LAU y otras</t>
   </si>
@@ -129,12 +129,6 @@
 luz</t>
   </si>
   <si>
-    <t>Incentivo</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>Importe</t>
   </si>
   <si>
@@ -142,6 +136,24 @@
   </si>
   <si>
     <t>Producto</t>
+  </si>
+  <si>
+    <t>% Contribución</t>
+  </si>
+  <si>
+    <t>Importe recomendado</t>
+  </si>
+  <si>
+    <t>Solicitud inquilino</t>
+  </si>
+  <si>
+    <t>Propuesta Vandor</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,17 +698,20 @@
     <col min="13" max="21" width="12.5703125" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" style="1" customWidth="1"/>
-    <col min="24" max="32" width="12" style="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="14.42578125" style="1"/>
+    <col min="24" max="28" width="12" style="1" customWidth="1"/>
+    <col min="29" max="32" width="14.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="32.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="59.7109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -748,8 +763,12 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -781,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>15</v>
@@ -808,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>21</v>
@@ -835,22 +854,28 @@
         <v>30</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -859,30 +884,30 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
       <c r="N4" s="5"/>
       <c r="O4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="12"/>
       <c r="S4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -895,7 +920,11 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="5"/>
+      <c r="AG4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/templates/report/reservaslau.xlsx
+++ b/app/templates/report/reservaslau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F055AE-ED18-4E9D-8E9B-0E79A5FB1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C071647-ADC2-411B-A3E3-FF97E2895449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AI$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Reservas LAU y otras</t>
   </si>
@@ -154,13 +167,19 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>(now)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -192,6 +211,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -268,7 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +320,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -710,6 +742,56 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="16">
+        <f>SUBTOTAL(9,M4:M99999)</f>
+        <v>0</v>
+      </c>
+      <c r="P1" s="16">
+        <f>SUBTOTAL(9,P4:P99999)</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="16">
+        <f>SUBTOTAL(9,Q4:Q99999)</f>
+        <v>0</v>
+      </c>
+      <c r="R1" s="16">
+        <f>SUBTOTAL(9,R4:R99999)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="16">
+        <f>SUBTOTAL(9,T4:T99999)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="16">
+        <f>SUBTOTAL(9,V4:V99999)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="16">
+        <f>SUBTOTAL(9,X4:X99999)</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="16">
+        <f>SUBTOTAL(9,Y4:Y99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AD1" s="16">
+        <f>SUBTOTAL(9,AD4:AD99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AE1" s="16">
+        <f>SUBTOTAL(9,AE4:AE99999)</f>
+        <v>0</v>
+      </c>
+      <c r="AF1" s="16">
+        <f>SUBTOTAL(9,AF4:AF99999)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -927,6 +1009,7 @@
       <c r="AI4" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AI3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/app/templates/report/reservaslau.xlsx
+++ b/app/templates/report/reservaslau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C071647-ADC2-411B-A3E3-FF97E2895449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A4248A-7048-43C8-82A4-4FBB3386D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AI$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AJ$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Reservas LAU y otras</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>(now)</t>
+  </si>
+  <si>
+    <t>Facturar?</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,20 +728,20 @@
     <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
     <col min="8" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="1" customWidth="1"/>
-    <col min="13" max="21" width="12.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="1" customWidth="1"/>
-    <col min="24" max="28" width="12" style="1" customWidth="1"/>
-    <col min="29" max="32" width="14.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="32.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="59.7109375" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="14.42578125" style="1"/>
+    <col min="11" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="12.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="1" customWidth="1"/>
+    <col min="25" max="29" width="12" style="1" customWidth="1"/>
+    <col min="30" max="33" width="14.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="32.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="59.7109375" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,12 +751,8 @@
       <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="16">
-        <f>SUBTOTAL(9,M4:M99999)</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="16">
-        <f>SUBTOTAL(9,P4:P99999)</f>
+      <c r="N1" s="16">
+        <f>SUBTOTAL(9,N4:N99999)</f>
         <v>0</v>
       </c>
       <c r="Q1" s="16">
@@ -764,24 +763,24 @@
         <f>SUBTOTAL(9,R4:R99999)</f>
         <v>0</v>
       </c>
-      <c r="T1" s="16">
-        <f>SUBTOTAL(9,T4:T99999)</f>
-        <v>0</v>
-      </c>
-      <c r="V1" s="16">
-        <f>SUBTOTAL(9,V4:V99999)</f>
-        <v>0</v>
-      </c>
-      <c r="X1" s="16">
-        <f>SUBTOTAL(9,X4:X99999)</f>
+      <c r="S1" s="16">
+        <f>SUBTOTAL(9,S4:S99999)</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="16">
+        <f>SUBTOTAL(9,U4:U99999)</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="16">
+        <f>SUBTOTAL(9,W4:W99999)</f>
         <v>0</v>
       </c>
       <c r="Y1" s="16">
         <f>SUBTOTAL(9,Y4:Y99999)</f>
         <v>0</v>
       </c>
-      <c r="AD1" s="16">
-        <f>SUBTOTAL(9,AD4:AD99999)</f>
+      <c r="Z1" s="16">
+        <f>SUBTOTAL(9,Z4:Z99999)</f>
         <v>0</v>
       </c>
       <c r="AE1" s="16">
@@ -792,8 +791,12 @@
         <f>SUBTOTAL(9,AF4:AF99999)</f>
         <v>0</v>
       </c>
+      <c r="AG1" s="16">
+        <f>SUBTOTAL(9,AG4:AG99999)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -812,45 +815,46 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -887,77 +891,80 @@
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AD3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -976,22 +983,22 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="13" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="7"/>
+      <c r="V4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -1002,14 +1009,15 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="13" t="s">
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="7"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AI3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AJ3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/app/templates/report/reservaslau.xlsx
+++ b/app/templates/report/reservaslau.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A4248A-7048-43C8-82A4-4FBB3386D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9870F-C69B-471E-9E5A-DE9B642DAF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AJ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$AK$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Reservas LAU y otras</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Facturar?</t>
+  </si>
+  <si>
+    <t>Código SAP</t>
   </si>
 </sst>
 </file>
@@ -714,49 +717,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="22" width="12.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" style="1" customWidth="1"/>
-    <col min="25" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="33" width="14.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="32.28515625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="59.7109375" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="14.42578125" style="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="1" customWidth="1"/>
+    <col min="13" max="14" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="12.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.44140625" style="1" customWidth="1"/>
+    <col min="26" max="30" width="12" style="1" customWidth="1"/>
+    <col min="31" max="34" width="14.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="32.33203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="59.6640625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="16">
-        <f>SUBTOTAL(9,N4:N99999)</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="16">
-        <f>SUBTOTAL(9,Q4:Q99999)</f>
+      <c r="O1" s="16">
+        <f>SUBTOTAL(9,O4:O99999)</f>
         <v>0</v>
       </c>
       <c r="R1" s="16">
@@ -767,24 +768,24 @@
         <f>SUBTOTAL(9,S4:S99999)</f>
         <v>0</v>
       </c>
-      <c r="U1" s="16">
-        <f>SUBTOTAL(9,U4:U99999)</f>
-        <v>0</v>
-      </c>
-      <c r="W1" s="16">
-        <f>SUBTOTAL(9,W4:W99999)</f>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="16">
-        <f>SUBTOTAL(9,Y4:Y99999)</f>
+      <c r="T1" s="16">
+        <f>SUBTOTAL(9,T4:T99999)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="16">
+        <f>SUBTOTAL(9,V4:V99999)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="16">
+        <f>SUBTOTAL(9,X4:X99999)</f>
         <v>0</v>
       </c>
       <c r="Z1" s="16">
         <f>SUBTOTAL(9,Z4:Z99999)</f>
         <v>0</v>
       </c>
-      <c r="AE1" s="16">
-        <f>SUBTOTAL(9,AE4:AE99999)</f>
+      <c r="AA1" s="16">
+        <f>SUBTOTAL(9,AA4:AA99999)</f>
         <v>0</v>
       </c>
       <c r="AF1" s="16">
@@ -795,66 +796,71 @@
         <f>SUBTOTAL(9,AG4:AG99999)</f>
         <v>0</v>
       </c>
+      <c r="AH1" s="16">
+        <f>SUBTOTAL(9,AH4:AH99999)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4"/>
+      <c r="X2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" s="11" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -864,142 +870,145 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="13" t="s">
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13" t="s">
+      <c r="S4" s="7"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -1010,14 +1019,15 @@
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="7"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AJ3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AK3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
